--- a/output/piastow/2022/sheets/year_2022.xlsx
+++ b/output/piastow/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>48.00322580645161</v>
+        <v>48.28096733624481</v>
       </c>
       <c r="C2" t="n">
-        <v>41.12580645161291</v>
+        <v>43.11187485069699</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>48.82857142857143</v>
+        <v>48.97796052748026</v>
       </c>
       <c r="C3" t="n">
-        <v>40.55714285714286</v>
+        <v>42.6477600443602</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>49.25161290322581</v>
+        <v>49.75074665439362</v>
       </c>
       <c r="C4" t="n">
-        <v>41.32258064516128</v>
+        <v>43.41932420129848</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.97333333333333</v>
+        <v>51.00637457784089</v>
       </c>
       <c r="C5" t="n">
-        <v>44.57</v>
+        <v>45.48497669419569</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>51.45806451612903</v>
+        <v>51.48422282243767</v>
       </c>
       <c r="C6" t="n">
-        <v>44.53870967741935</v>
+        <v>44.99045096445102</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.69666666666665</v>
+        <v>51.72012585158881</v>
       </c>
       <c r="C7" t="n">
-        <v>45.47666666666667</v>
+        <v>45.64516217327342</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.65806451612904</v>
+        <v>51.7308659915699</v>
       </c>
       <c r="C8" t="n">
-        <v>44.77741935483871</v>
+        <v>45.08474586078079</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>50.91612903225807</v>
+        <v>50.95077375819403</v>
       </c>
       <c r="C9" t="n">
-        <v>45.12903225806452</v>
+        <v>45.27114051503814</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.27333333333333</v>
+        <v>52.32351395211532</v>
       </c>
       <c r="C10" t="n">
-        <v>45.75</v>
+        <v>46.00016705640533</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.46451612903225</v>
+        <v>50.54830601188706</v>
       </c>
       <c r="C11" t="n">
-        <v>35.76774193548387</v>
+        <v>43.68321275210344</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>51.28333333333333</v>
+        <v>51.5260259208254</v>
       </c>
       <c r="C12" t="n">
-        <v>44.69333333333334</v>
+        <v>45.14633251139646</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>50.5225806451613</v>
+        <v>50.69797611556523</v>
       </c>
       <c r="C13" t="n">
-        <v>43.72258064516129</v>
+        <v>44.55063444036928</v>
       </c>
     </row>
   </sheetData>
